--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13733C62-28BD-4133-84FE-76E93C9EB0F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA300040-0117-4F8E-B370-8FB43F99996B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="5865" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="CoVaR" sheetId="1" r:id="rId1"/>
-    <sheet name="DCoVaR" sheetId="2" r:id="rId2"/>
+    <sheet name="Delta CoVaR" sheetId="2" r:id="rId2"/>
     <sheet name="MES" sheetId="3" r:id="rId3"/>
     <sheet name="SRISK" sheetId="4" r:id="rId4"/>
     <sheet name="Averages" sheetId="5" r:id="rId5"/>

--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA300040-0117-4F8E-B370-8FB43F99996B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96441C8-70E5-4D2E-B298-FFA65DDD7DD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="5520" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="CoVaR" sheetId="1" r:id="rId1"/>

--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96441C8-70E5-4D2E-B298-FFA65DDD7DD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A7E0AD-C37B-468A-8046-AC8737913A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A7E0AD-C37B-468A-8046-AC8737913A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F756D0-D10E-4166-903E-F45BD8CA7DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F756D0-D10E-4166-903E-F45BD8CA7DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C7BE70-264D-440E-8F00-D7ACC84CCB6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="5865" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="CoVaR" sheetId="1" r:id="rId1"/>

--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C7BE70-264D-440E-8F00-D7ACC84CCB6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98BB4D-41F1-4691-8FF1-5E40DF12381A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98BB4D-41F1-4691-8FF1-5E40DF12381A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F412DF3F-1107-48BD-8783-04799A0A3CFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F412DF3F-1107-48BD-8783-04799A0A3CFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298614B-042C-4D99-B402-75B3CFD6FBF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateStochastic.xlsx
+++ b/Templates/TemplateStochastic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master-c\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416054C7-AF80-462F-97A2-FBD9D4067316}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95431DA-AD38-4A0A-BEA0-6BD5DF51A4A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="7200" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="CoVaR" sheetId="1" r:id="rId1"/>
